--- a/percept/teste.xlsx
+++ b/percept/teste.xlsx
@@ -6,24 +6,69 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Exemplo" r:id="rId3" sheetId="1"/>
+    <sheet name="gov" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Idade</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Mes Competencia</t>
+  </si>
+  <si>
+    <t>Mes Referencia</t>
+  </si>
+  <si>
+    <t>4158902269</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>4169708499</t>
+  </si>
+  <si>
+    <t>4158968289</t>
+  </si>
+  <si>
+    <t>4163639963</t>
+  </si>
+  <si>
+    <t>4172802255</t>
+  </si>
+  <si>
+    <t>4151622789</t>
+  </si>
+  <si>
+    <t>4159765445</t>
+  </si>
+  <si>
+    <t>4168221709</t>
+  </si>
+  <si>
+    <t>4148110557</t>
+  </si>
+  <si>
+    <t>4147404349</t>
+  </si>
+  <si>
+    <t>4156267913</t>
+  </si>
+  <si>
+    <t>4163265939</t>
+  </si>
+  <si>
+    <t>4170626597</t>
+  </si>
+  <si>
+    <t>4151820391</t>
+  </si>
+  <si>
+    <t>4151642004</t>
   </si>
 </sst>
 </file>
@@ -68,7 +113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -81,21 +126,173 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>25.0</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30.0</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
